--- a/data/trans_bre/PCS12_SP_R3-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R3-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>14.4364586104287</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11.85380605466306</v>
+        <v>11.85380605466305</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4225480510761426</v>
@@ -649,7 +649,7 @@
         <v>0.7001610663472708</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5525436890214112</v>
+        <v>0.5525436890214108</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0589263191933106</v>
+        <v>0.4196118470890944</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.473800479200321</v>
+        <v>5.9943652672085</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.417650303736741</v>
+        <v>6.332830220992987</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.702736439929033</v>
+        <v>5.339485305288144</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>9.147134042270259e-05</v>
+        <v>0.01777511564022098</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2185180299034531</v>
+        <v>0.2354844472240604</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2595798980317523</v>
+        <v>0.2607036109266972</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2269768796418924</v>
+        <v>0.195932365221974</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.25126481913509</v>
+        <v>14.84981374942796</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>21.51294542522152</v>
+        <v>22.74951969086723</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21.52577282712127</v>
+        <v>21.87675590570873</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18.00282492481948</v>
+        <v>17.52050680625177</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.059100819712031</v>
+        <v>1.094205693023472</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.195020022175251</v>
+        <v>1.268249087561104</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.272026139711764</v>
+        <v>1.304940029781034</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.9909596502652657</v>
+        <v>0.9499197256917712</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>9.98863892308535</v>
+        <v>9.826737447268453</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.102745951022362</v>
+        <v>7.862396701033866</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.305278525192405</v>
+        <v>3.97097859976267</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.52108845480101</v>
+        <v>1.969081952127871</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5261202531879857</v>
+        <v>0.5203347476938732</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3634009360428886</v>
+        <v>0.4194035790343832</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2700207883501944</v>
+        <v>0.2584599446997998</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.05718911557394589</v>
+        <v>0.07636629163032278</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>20.63867038060295</v>
+        <v>20.30494996671823</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>18.58148683965329</v>
+        <v>17.98355355408285</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14.20339349846186</v>
+        <v>13.5555988785185</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12.38936699535073</v>
+        <v>12.29930000776675</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.575957095096235</v>
+        <v>1.538429232438385</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.437818336831017</v>
+        <v>1.369245460520645</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.302248777741572</v>
+        <v>1.217735068577108</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.622055990932605</v>
+        <v>0.6355277822114872</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>5.605098538034084</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.661497807526072</v>
+        <v>4.661497807526082</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.153238637602663</v>
@@ -849,7 +849,7 @@
         <v>0.405818372377751</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1794017829290746</v>
+        <v>0.179401782929075</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>9.002663074405953</v>
+        <v>8.896726914461269</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.395332450555284</v>
+        <v>2.918885421193259</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.3321646044485551</v>
+        <v>0.1250048341810226</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.8105063715842911</v>
+        <v>-0.7848013511008571</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5513916405414353</v>
+        <v>0.5201261684197448</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1757148910635816</v>
+        <v>0.1448275207030016</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.02197702533952395</v>
+        <v>-0.01094621309622085</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.02629317456468175</v>
+        <v>-0.02995432102457935</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>21.33670456425278</v>
+        <v>21.28258528426151</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.50782955272009</v>
+        <v>16.38529644930081</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.49446719076632</v>
+        <v>11.91989399943891</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.9927345373882</v>
+        <v>11.12441692069507</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.085224684491876</v>
+        <v>2.082857450547823</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.210541878111106</v>
+        <v>1.262449981304288</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.034698157662147</v>
+        <v>1.066486322604861</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.4483930703977463</v>
+        <v>0.4917619837602146</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>13.69760673980465</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9.898129005511407</v>
+        <v>9.898129005511406</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9521801492431898</v>
@@ -949,7 +949,7 @@
         <v>0.5930950886378868</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.4063736673878885</v>
+        <v>0.4063736673878884</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.501350695720338</v>
+        <v>7.098481383118026</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>8.736875825750564</v>
+        <v>8.398019970549866</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.811855497148881</v>
+        <v>7.05021124201835</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.509513450923626</v>
+        <v>2.950986217605049</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4467981625250297</v>
+        <v>0.4054777284522442</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3266431682710592</v>
+        <v>0.332431085818619</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2366392693571098</v>
+        <v>0.2643163925897489</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.09138386629412117</v>
+        <v>0.1044239493856323</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>18.95655472577113</v>
+        <v>18.78529328368884</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>22.58977670778292</v>
+        <v>21.67684454412481</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>20.79237685641766</v>
+        <v>21.25918708348112</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>16.35358414946422</v>
+        <v>16.49192028966846</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.646513005389646</v>
+        <v>1.60911145357329</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.197330888225505</v>
+        <v>1.211202997495146</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.034981469477623</v>
+        <v>1.049209175623409</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7947394766357708</v>
+        <v>0.8353052217365923</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>8.640269323318018</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9.247413776980107</v>
+        <v>9.247413776980103</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5726954389080653</v>
@@ -1049,7 +1049,7 @@
         <v>0.5985698226396563</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.6339413796698069</v>
+        <v>0.6339413796698067</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6078199812431229</v>
+        <v>0.6003252978346557</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.179864291170941</v>
+        <v>6.651779455849816</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8628840220180366</v>
+        <v>1.113119497700138</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.416168519078099</v>
+        <v>4.059786709488734</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.01576020582330777</v>
+        <v>0.02478897968393581</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2237260634398463</v>
+        <v>0.2536084493642414</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04286115707833858</v>
+        <v>0.04757022484549033</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.2022370243825796</v>
+        <v>0.2209585481475333</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.10909501990208</v>
+        <v>16.04190066357592</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>24.49569368734089</v>
+        <v>25.01855329273194</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15.6951266223397</v>
+        <v>16.02073130283494</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14.435633767798</v>
+        <v>15.06804616661876</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.442369485762579</v>
+        <v>1.594616179244777</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.317048683180672</v>
+        <v>1.430319365089654</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.41416449791197</v>
+        <v>1.431778369370327</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.298052507157156</v>
+        <v>1.315548978567116</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>7.088162906373732</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9.906575266674617</v>
+        <v>9.906575266674601</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8385843710332598</v>
@@ -1149,7 +1149,7 @@
         <v>0.2996769309032469</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.3523921473206298</v>
+        <v>0.3523921473206292</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>6.8553508701325</v>
+        <v>6.414915093108084</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-0.6061636379447013</v>
+        <v>0.1171060613322035</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.749465566102731</v>
+        <v>-0.1799285378136644</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.913497016131983</v>
+        <v>3.53117161635255</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3316753952219859</v>
+        <v>0.3197891582396923</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.02816387550626035</v>
+        <v>0.003639158425817861</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.05810011730831414</v>
+        <v>-0.00814097485889979</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.09715869504705561</v>
+        <v>0.1027998913509721</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>21.59990851649259</v>
+        <v>21.56671269976968</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>14.71218280206918</v>
+        <v>14.80899541453226</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>14.4621061455782</v>
+        <v>14.74558917394294</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>16.07131673603151</v>
+        <v>16.39155912253307</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.517007029920568</v>
+        <v>1.628004940849458</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7841200812680139</v>
+        <v>0.7673508972622566</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7132304185026246</v>
+        <v>0.7597360230656186</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6610482043385685</v>
+        <v>0.6496167942181676</v>
       </c>
     </row>
     <row r="22">
@@ -1249,7 +1249,7 @@
         <v>0.4264091963067866</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.4875093242379338</v>
+        <v>0.4875093242379336</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>4.970698714385346</v>
+        <v>5.196706419718959</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>7.607530865349268</v>
+        <v>6.859686094611399</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.977215947374933</v>
+        <v>3.150681275703823</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5.791495592370862</v>
+        <v>6.056965505680256</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2600476054907979</v>
+        <v>0.2785485093203324</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4327687968261552</v>
+        <v>0.4127579815600851</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1409197859162545</v>
+        <v>0.1493939326916877</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.2534835782072295</v>
+        <v>0.2600291162283573</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>14.11501883564667</v>
+        <v>14.80317663480351</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>16.70303931528407</v>
+        <v>16.14912361695441</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12.43168044212678</v>
+        <v>12.32597753876251</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14.34497795900148</v>
+        <v>15.09273899581027</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.043020312569259</v>
+        <v>1.081727452944014</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.272781487219743</v>
+        <v>1.276122565345631</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7784356331110689</v>
+        <v>0.7499864613829024</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.7910359280434328</v>
+        <v>0.8190232575362654</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>10.14236852526371</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9.837266966903693</v>
+        <v>9.837266966903698</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5200162316155362</v>
@@ -1349,7 +1349,7 @@
         <v>0.8261948636684895</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.6030344850611133</v>
+        <v>0.6030344850611137</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>5.08263011583778</v>
+        <v>5.173096753541568</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>3.375451716386566</v>
+        <v>3.651229308620525</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6.558123148057664</v>
+        <v>6.216288610244526</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6.138157603825772</v>
+        <v>5.905911529698929</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2627301052898195</v>
+        <v>0.2513459902484372</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1766427399365874</v>
+        <v>0.1943092163520952</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4624050246750285</v>
+        <v>0.4277577280453544</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.325469165392896</v>
+        <v>0.3005432559632663</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>13.51106472629219</v>
+        <v>13.38973366968816</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>12.39295449212157</v>
+        <v>11.7367963647752</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>14.20206625653675</v>
+        <v>13.85332737623917</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>13.37644102231957</v>
+        <v>13.11228627105574</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8889684971226919</v>
+        <v>0.8367065754025796</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8342845578090371</v>
+        <v>0.7907990845282484</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.338585117689943</v>
+        <v>1.297343883609139</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.9140298349654199</v>
+        <v>0.9038372526229322</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>9.459649322304371</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>9.173597076226944</v>
+        <v>9.173597076226942</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7214353064448424</v>
@@ -1449,7 +1449,7 @@
         <v>0.5669527672555508</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.4335463068274151</v>
+        <v>0.4335463068274149</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>9.501165778461578</v>
+        <v>9.586124769980184</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>9.111615501126181</v>
+        <v>9.302247096885473</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7.422651409168582</v>
+        <v>7.349417200686075</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7.109831399896077</v>
+        <v>7.30774126372896</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.5656642655497136</v>
+        <v>0.5708019396988604</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4765001370251639</v>
+        <v>0.4917781745036811</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4146496360667573</v>
+        <v>0.4159518925564639</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.3200521235134228</v>
+        <v>0.3239145290788994</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>13.31772901337341</v>
+        <v>13.59307871903723</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>13.34291635870432</v>
+        <v>13.61177859964578</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>11.42210407291815</v>
+        <v>11.46094122517846</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10.99113826733335</v>
+        <v>11.02500090298635</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.8994881477978343</v>
+        <v>0.9062102138165012</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7956503867057256</v>
+        <v>0.7988663092162762</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.7190012218579577</v>
+        <v>0.7179357611884459</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.5472224911951068</v>
+        <v>0.5490440838659895</v>
       </c>
     </row>
     <row r="31">
